--- a/data-raw/Eugene/eugene-raw2.xlsx
+++ b/data-raw/Eugene/eugene-raw2.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au757887\PC_documents\_git-it\ghproj_CENTS\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au757887\PC_documents\_git-it\CENTSdata\data-raw\Eugene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01A4033E-8622-498E-BC3E-3CC0B93809EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E37EEA8-9FAD-4D13-9119-223D014DCBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23016" windowHeight="12336" xr2:uid="{887830F4-49DB-4630-B0CE-3D9BA451C536}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{887830F4-49DB-4630-B0CE-3D9BA451C536}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2020 spraying" sheetId="1" r:id="rId1"/>
+    <sheet name="2020 other" sheetId="2" r:id="rId2"/>
+    <sheet name="2020 other other" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="36">
   <si>
     <t>Location</t>
   </si>
@@ -88,6 +90,63 @@
   <si>
     <t>2,5 l/ha 480 gr aktiv stof/l</t>
   </si>
+  <si>
+    <t>Crop</t>
+  </si>
+  <si>
+    <t>Variety</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>SeedSize</t>
+  </si>
+  <si>
+    <t>Germination</t>
+  </si>
+  <si>
+    <t>RowDistance</t>
+  </si>
+  <si>
+    <t>HV</t>
+  </si>
+  <si>
+    <t>KWS Extase</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>Boxer</t>
+  </si>
+  <si>
+    <t>Harvning med Terrano 3FX 8-10 cm</t>
+  </si>
+  <si>
+    <t>harrowing</t>
+  </si>
+  <si>
+    <t>Harvning med Horch harve  4-5 cm</t>
+  </si>
+  <si>
+    <t>med vingeskær</t>
+  </si>
+  <si>
+    <t>Presning af halm</t>
+  </si>
+  <si>
+    <t>Harvning med Horch harve 8-10 cm</t>
+  </si>
+  <si>
+    <t>Pløjning med jordpakker 20 cm dybde</t>
+  </si>
+  <si>
+    <t>uden Jordpakker! Men trømlet bagefter</t>
+  </si>
+  <si>
+    <t>Boxer 2,0 l/ha; Stomp Cs 0,4 l/ha; Dff 0,1 l/ha; Kaiso Sorbi 0,1 kg/ha.</t>
+  </si>
 </sst>
 </file>
 
@@ -122,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -182,11 +241,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +315,24 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738DDBAC-9456-4923-B100-E6A2EA117B35}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -1222,4 +1351,2342 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B321E20-198F-4D31-82AB-44E3803DC95C}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>44103</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="10">
+        <v>210</v>
+      </c>
+      <c r="I2" s="10">
+        <v>57</v>
+      </c>
+      <c r="J2" s="10">
+        <v>95</v>
+      </c>
+      <c r="K2" s="10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>44102</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="10">
+        <v>210</v>
+      </c>
+      <c r="I3" s="10">
+        <v>57</v>
+      </c>
+      <c r="J3" s="10">
+        <v>95</v>
+      </c>
+      <c r="K3" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>44102</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="10">
+        <v>210</v>
+      </c>
+      <c r="I4" s="10">
+        <v>57</v>
+      </c>
+      <c r="J4" s="10">
+        <v>95</v>
+      </c>
+      <c r="K4" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>44102</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="10">
+        <v>210</v>
+      </c>
+      <c r="I5" s="10">
+        <v>57</v>
+      </c>
+      <c r="J5" s="10">
+        <v>95</v>
+      </c>
+      <c r="K5" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>44103</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="10">
+        <v>210</v>
+      </c>
+      <c r="I6" s="10">
+        <v>57</v>
+      </c>
+      <c r="J6" s="10">
+        <v>95</v>
+      </c>
+      <c r="K6" s="10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>44102</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="10">
+        <v>210</v>
+      </c>
+      <c r="I7" s="10">
+        <v>57</v>
+      </c>
+      <c r="J7" s="10">
+        <v>95</v>
+      </c>
+      <c r="K7" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>44102</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="10">
+        <v>210</v>
+      </c>
+      <c r="I8" s="10">
+        <v>57</v>
+      </c>
+      <c r="J8" s="10">
+        <v>95</v>
+      </c>
+      <c r="K8" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>44102</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="10">
+        <v>210</v>
+      </c>
+      <c r="I9" s="10">
+        <v>57</v>
+      </c>
+      <c r="J9" s="10">
+        <v>95</v>
+      </c>
+      <c r="K9" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>43936</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="10">
+        <v>280</v>
+      </c>
+      <c r="I10" s="10">
+        <v>488</v>
+      </c>
+      <c r="J10" s="10">
+        <v>90</v>
+      </c>
+      <c r="K10" s="10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10">
+        <v>4</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>43936</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="10">
+        <v>280</v>
+      </c>
+      <c r="I11" s="10">
+        <v>488</v>
+      </c>
+      <c r="J11" s="10">
+        <v>90</v>
+      </c>
+      <c r="K11" s="10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>43936</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="10">
+        <v>280</v>
+      </c>
+      <c r="I12" s="10">
+        <v>488</v>
+      </c>
+      <c r="J12" s="10">
+        <v>90</v>
+      </c>
+      <c r="K12" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>43936</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="10">
+        <v>280</v>
+      </c>
+      <c r="I13" s="10">
+        <v>488</v>
+      </c>
+      <c r="J13" s="10">
+        <v>90</v>
+      </c>
+      <c r="K13" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>3</v>
+      </c>
+      <c r="B14" s="10">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>43936</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="10">
+        <v>280</v>
+      </c>
+      <c r="I14" s="10">
+        <v>488</v>
+      </c>
+      <c r="J14" s="10">
+        <v>90</v>
+      </c>
+      <c r="K14" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>3</v>
+      </c>
+      <c r="B15" s="10">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10">
+        <v>3</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>43936</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="10">
+        <v>280</v>
+      </c>
+      <c r="I15" s="10">
+        <v>488</v>
+      </c>
+      <c r="J15" s="10">
+        <v>90</v>
+      </c>
+      <c r="K15" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>3</v>
+      </c>
+      <c r="B16" s="10">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10">
+        <v>4</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>43936</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="10">
+        <v>280</v>
+      </c>
+      <c r="I16" s="10">
+        <v>488</v>
+      </c>
+      <c r="J16" s="10">
+        <v>90</v>
+      </c>
+      <c r="K16" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>3</v>
+      </c>
+      <c r="B17" s="10">
+        <v>4</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>43936</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="10">
+        <v>280</v>
+      </c>
+      <c r="I17" s="10">
+        <v>488</v>
+      </c>
+      <c r="J17" s="10">
+        <v>90</v>
+      </c>
+      <c r="K17" s="10">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D434ED6-78FB-4ADE-8073-904BBFC425C5}">
+  <dimension ref="A1:G75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>43927</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>43927</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>43927</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>43927</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>43927</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>43927</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>43936</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>43936</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>43957</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>43957</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>43957</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>43957</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>3</v>
+      </c>
+      <c r="B14" s="10">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>43957</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>3</v>
+      </c>
+      <c r="B15" s="10">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>43957</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>3</v>
+      </c>
+      <c r="B16" s="10">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>43957</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>3</v>
+      </c>
+      <c r="B17" s="10">
+        <v>4</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>43957</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>3</v>
+      </c>
+      <c r="B18" s="10">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>3</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <v>43971</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>3</v>
+      </c>
+      <c r="B19" s="10">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>43971</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>3</v>
+      </c>
+      <c r="B20" s="10">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <v>43971</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>3</v>
+      </c>
+      <c r="B21" s="10">
+        <v>4</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>43971</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>43971</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>3</v>
+      </c>
+      <c r="B23" s="10">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>4</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>43971</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>3</v>
+      </c>
+      <c r="B24" s="10">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10">
+        <v>4</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>43971</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>3</v>
+      </c>
+      <c r="B25" s="10">
+        <v>4</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>43971</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>3</v>
+      </c>
+      <c r="B26" s="10">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <v>43984</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>3</v>
+      </c>
+      <c r="B27" s="10">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <v>43984</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>3</v>
+      </c>
+      <c r="B28" s="10">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10">
+        <v>4</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <v>43984</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>3</v>
+      </c>
+      <c r="B29" s="10">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <v>43984</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>3</v>
+      </c>
+      <c r="B30" s="10">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10">
+        <v>2</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <v>43984</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>3</v>
+      </c>
+      <c r="B31" s="10">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10">
+        <v>2</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <v>43984</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>3</v>
+      </c>
+      <c r="B32" s="10">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>3</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <v>43984</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>3</v>
+      </c>
+      <c r="B33" s="10">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="11">
+        <v>43984</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>3</v>
+      </c>
+      <c r="B34" s="10">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <v>43999</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>3</v>
+      </c>
+      <c r="B35" s="10">
+        <v>4</v>
+      </c>
+      <c r="C35" s="10">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <v>43999</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>3</v>
+      </c>
+      <c r="B36" s="10">
+        <v>3</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <v>43999</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
+        <v>3</v>
+      </c>
+      <c r="B37" s="10">
+        <v>4</v>
+      </c>
+      <c r="C37" s="10">
+        <v>3</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <v>43999</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
+        <v>3</v>
+      </c>
+      <c r="B38" s="10">
+        <v>3</v>
+      </c>
+      <c r="C38" s="10">
+        <v>4</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>43999</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
+        <v>3</v>
+      </c>
+      <c r="B39" s="10">
+        <v>3</v>
+      </c>
+      <c r="C39" s="10">
+        <v>3</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11">
+        <v>43999</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
+        <v>3</v>
+      </c>
+      <c r="B40" s="10">
+        <v>3</v>
+      </c>
+      <c r="C40" s="10">
+        <v>2</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
+        <v>43999</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="9">
+        <v>3</v>
+      </c>
+      <c r="B41" s="10">
+        <v>4</v>
+      </c>
+      <c r="C41" s="10">
+        <v>4</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="11">
+        <v>43999</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
+        <v>3</v>
+      </c>
+      <c r="B42" s="10">
+        <v>4</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="11">
+        <v>43999</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
+        <v>3</v>
+      </c>
+      <c r="B43" s="10">
+        <v>3</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="11">
+        <v>43999</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="9">
+        <v>3</v>
+      </c>
+      <c r="B44" s="10">
+        <v>3</v>
+      </c>
+      <c r="C44" s="10">
+        <v>2</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="11">
+        <v>43999</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="9">
+        <v>3</v>
+      </c>
+      <c r="B45" s="10">
+        <v>3</v>
+      </c>
+      <c r="C45" s="10">
+        <v>3</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="11">
+        <v>43999</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
+        <v>3</v>
+      </c>
+      <c r="B46" s="10">
+        <v>4</v>
+      </c>
+      <c r="C46" s="10">
+        <v>2</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11">
+        <v>43999</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="9">
+        <v>3</v>
+      </c>
+      <c r="B47" s="10">
+        <v>3</v>
+      </c>
+      <c r="C47" s="10">
+        <v>4</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <v>43999</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="9">
+        <v>3</v>
+      </c>
+      <c r="B48" s="10">
+        <v>4</v>
+      </c>
+      <c r="C48" s="10">
+        <v>3</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>43999</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="9">
+        <v>3</v>
+      </c>
+      <c r="B49" s="10">
+        <v>4</v>
+      </c>
+      <c r="C49" s="10">
+        <v>4</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11">
+        <v>43999</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="9">
+        <v>3</v>
+      </c>
+      <c r="B50" s="10">
+        <v>4</v>
+      </c>
+      <c r="C50" s="10">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <v>44053</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="9">
+        <v>3</v>
+      </c>
+      <c r="B51" s="10">
+        <v>3</v>
+      </c>
+      <c r="C51" s="10">
+        <v>3</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11">
+        <v>44053</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="9">
+        <v>3</v>
+      </c>
+      <c r="B52" s="10">
+        <v>3</v>
+      </c>
+      <c r="C52" s="10">
+        <v>4</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <v>44053</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="9">
+        <v>3</v>
+      </c>
+      <c r="B53" s="10">
+        <v>3</v>
+      </c>
+      <c r="C53" s="10">
+        <v>2</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11">
+        <v>44053</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="9">
+        <v>3</v>
+      </c>
+      <c r="B54" s="10">
+        <v>4</v>
+      </c>
+      <c r="C54" s="10">
+        <v>3</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <v>44053</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="9">
+        <v>3</v>
+      </c>
+      <c r="B55" s="10">
+        <v>3</v>
+      </c>
+      <c r="C55" s="10">
+        <v>1</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="11">
+        <v>44053</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="9">
+        <v>3</v>
+      </c>
+      <c r="B56" s="10">
+        <v>4</v>
+      </c>
+      <c r="C56" s="10">
+        <v>4</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+      <c r="E56" s="11">
+        <v>44053</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="9">
+        <v>3</v>
+      </c>
+      <c r="B57" s="10">
+        <v>4</v>
+      </c>
+      <c r="C57" s="10">
+        <v>2</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="11">
+        <v>44053</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="9">
+        <v>3</v>
+      </c>
+      <c r="B58" s="10">
+        <v>4</v>
+      </c>
+      <c r="C58" s="10">
+        <v>2</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+      <c r="E58" s="11">
+        <v>44076</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="9">
+        <v>3</v>
+      </c>
+      <c r="B59" s="10">
+        <v>3</v>
+      </c>
+      <c r="C59" s="10">
+        <v>2</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="11">
+        <v>44076</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="9">
+        <v>3</v>
+      </c>
+      <c r="B60" s="10">
+        <v>3</v>
+      </c>
+      <c r="C60" s="10">
+        <v>4</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="E60" s="11">
+        <v>44076</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="9">
+        <v>3</v>
+      </c>
+      <c r="B61" s="10">
+        <v>3</v>
+      </c>
+      <c r="C61" s="10">
+        <v>2</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="11">
+        <v>44076</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="9">
+        <v>3</v>
+      </c>
+      <c r="B62" s="10">
+        <v>3</v>
+      </c>
+      <c r="C62" s="10">
+        <v>3</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+      <c r="E62" s="11">
+        <v>44076</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="9">
+        <v>3</v>
+      </c>
+      <c r="B63" s="10">
+        <v>3</v>
+      </c>
+      <c r="C63" s="10">
+        <v>1</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="11">
+        <v>44076</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="9">
+        <v>3</v>
+      </c>
+      <c r="B64" s="10">
+        <v>3</v>
+      </c>
+      <c r="C64" s="10">
+        <v>2</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
+      <c r="E64" s="11">
+        <v>44102</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="9">
+        <v>3</v>
+      </c>
+      <c r="B65" s="10">
+        <v>4</v>
+      </c>
+      <c r="C65" s="10">
+        <v>2</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11">
+        <v>44102</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="9">
+        <v>3</v>
+      </c>
+      <c r="B66" s="10">
+        <v>4</v>
+      </c>
+      <c r="C66" s="10">
+        <v>1</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0</v>
+      </c>
+      <c r="E66" s="11">
+        <v>44102</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="9">
+        <v>3</v>
+      </c>
+      <c r="B67" s="10">
+        <v>3</v>
+      </c>
+      <c r="C67" s="10">
+        <v>1</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
+      <c r="E67" s="11">
+        <v>44102</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="9">
+        <v>3</v>
+      </c>
+      <c r="B68" s="10">
+        <v>4</v>
+      </c>
+      <c r="C68" s="10">
+        <v>4</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0</v>
+      </c>
+      <c r="E68" s="11">
+        <v>44118</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="9">
+        <v>3</v>
+      </c>
+      <c r="B69" s="10">
+        <v>4</v>
+      </c>
+      <c r="C69" s="10">
+        <v>3</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="11">
+        <v>44118</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="9">
+        <v>3</v>
+      </c>
+      <c r="B70" s="10">
+        <v>4</v>
+      </c>
+      <c r="C70" s="10">
+        <v>2</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <v>44118</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="9">
+        <v>3</v>
+      </c>
+      <c r="B71" s="10">
+        <v>4</v>
+      </c>
+      <c r="C71" s="10">
+        <v>1</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
+        <v>44118</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="9">
+        <v>3</v>
+      </c>
+      <c r="B72" s="10">
+        <v>3</v>
+      </c>
+      <c r="C72" s="10">
+        <v>4</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <v>44118</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="9">
+        <v>3</v>
+      </c>
+      <c r="B73" s="10">
+        <v>3</v>
+      </c>
+      <c r="C73" s="10">
+        <v>3</v>
+      </c>
+      <c r="D73" s="10">
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <v>44118</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="9">
+        <v>3</v>
+      </c>
+      <c r="B74" s="10">
+        <v>3</v>
+      </c>
+      <c r="C74" s="10">
+        <v>2</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
+        <v>44118</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="9">
+        <v>3</v>
+      </c>
+      <c r="B75" s="10">
+        <v>3</v>
+      </c>
+      <c r="C75" s="10">
+        <v>1</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <v>44118</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>